--- a/updateSqlLog.xlsx
+++ b/updateSqlLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
   </si>
@@ -27,10 +27,16 @@
     <t>执行</t>
   </si>
   <si>
+    <t>执行人</t>
+  </si>
+  <si>
     <t>menu表添加show_type字段</t>
   </si>
   <si>
     <t>ALTER TABLE menu ADD show_type int (1) DEFAULT NULL COMMENT '是否显示，1=是，2=否'</t>
+  </si>
+  <si>
+    <t>YLB</t>
   </si>
 </sst>
 </file>
@@ -38,12 +44,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +59,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -60,7 +73,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,43 +118,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +134,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,14 +201,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,187 +211,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,13 +438,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,17 +477,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,168 +502,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.1818181818182" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.0909090909091" style="1" customWidth="1"/>
@@ -1025,7 +1024,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,16 +1034,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>43557</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/updateSqlLog.xlsx
+++ b/updateSqlLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -38,16 +38,22 @@
   <si>
     <t>YLB</t>
   </si>
+  <si>
+    <t>menu表添加is_init字段</t>
+  </si>
+  <si>
+    <t>ALTER TABLE menu ADD is_init int (1) DEFAULT NULL COMMENT '是否初始化，1=是，2=否'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,6 +65,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -66,7 +87,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,10 +129,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,71 +178,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,73 +217,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,109 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,9 +413,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,21 +479,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -468,37 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.1818181818182" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.0909090909091" style="1" customWidth="1"/>
@@ -1049,6 +1055,20 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/updateSqlLog.xlsx
+++ b/updateSqlLog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
   </si>
@@ -30,39 +30,26 @@
     <t>执行人</t>
   </si>
   <si>
-    <t>menu表添加show_type字段</t>
+    <t>menu表添加level字段</t>
   </si>
   <si>
-    <t>ALTER TABLE menu ADD show_type int (1) DEFAULT NULL COMMENT '是否显示，1=是，2=否'</t>
+    <t>ALTER TABLE menu ADD level int (2) DEFAULT NULL COMMENT '菜单层级'</t>
   </si>
   <si>
     <t>YLB</t>
-  </si>
-  <si>
-    <t>menu表添加is_init字段</t>
-  </si>
-  <si>
-    <t>ALTER TABLE menu ADD is_init int (1) DEFAULT NULL COMMENT '是否初始化，1=是，2=否'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YBX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specialty_files表添加specialty_name字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALTER TABLE specialty_files ADD specialty_name varchar(100) DEFAULT NULL COMMENT '专业名称'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,21 +58,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,9 +404,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -110,10 +663,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -404,23 +1004,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="101.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.3727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="101.254545454545" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -440,7 +1040,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43557</v>
+        <v>43583</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -452,65 +1052,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A3" s="2">
-        <v>43571</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" ht="23.25" customHeight="1" spans="1:1">
+      <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A4" s="2">
-        <v>43578</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" ht="26.25" customHeight="1" spans="1:1">
+      <c r="A4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/updateSqlLog.xlsx
+++ b/updateSqlLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -38,16 +38,42 @@
   <si>
     <t>YLB</t>
   </si>
+  <si>
+    <t>添加专利类型表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drop table if exists patent_type;
+/*==============================================================*/
+/* Table: patent_type                                           */
+/*==============================================================*/
+create table patent_type
+(
+   id                   bigint not null auto_increment comment '主键',
+   code                 varchar(100) comment '类型编号',
+   name                 varchar(100) comment '类型名称',
+   status               int(2) comment '状态(1=正常，2=删除)',
+   create_time          datetime comment '创建时间',
+   create_user          varchar(100) comment '创建人',
+   modify_time          datetime comment '修改时间',
+   modify_user          varchar(100) comment '修改人',
+   primary key (id)
+);
+alter table patent_type comment '专利类型';
+</t>
+  </si>
+  <si>
+    <t>ALTER TABLE patent ADD patent_type_id bigint DEFAULT NULL COMMENT '专利类型id'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,29 +84,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -104,31 +107,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,12 +146,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -170,35 +221,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,25 +237,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,13 +387,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,139 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +428,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,71 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,137 +548,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +687,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1012,8 +1041,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1052,11 +1081,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="23.25" customHeight="1" spans="1:1">
-      <c r="A3" s="2"/>
+    <row r="3" ht="23.25" customHeight="1" spans="1:4">
+      <c r="A3" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" ht="26.25" customHeight="1" spans="1:1">
+    <row r="4" ht="26.25" customHeight="1" spans="1:4">
       <c r="A4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updateSqlLog.xlsx
+++ b/updateSqlLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>ALTER TABLE teachers ADD director varchar(24) DEFAULT NULL COMMENT '团队负责人 ,1=是,2=否'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE specialty_files ADD url_file_name varchar(255) DEFAULT NULL COMMENT '文件名称'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE specialty_files ADD url_file varchar(255) DEFAULT NULL COMMENT '文件路径'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,17 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="101.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="105.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -500,6 +512,22 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/updateSqlLog.xlsx
+++ b/updateSqlLog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065"/>
+    <workbookView windowWidth="21045" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -63,34 +63,34 @@
   </si>
   <si>
     <t>ALTER TABLE patent ADD patent_type_id bigint DEFAULT NULL COMMENT '专利类型id'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE teachers ADD director varchar(24) DEFAULT NULL COMMENT '团队负责人 ,1=是,2=否'</t>
   </si>
   <si>
     <t>YBX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALTER TABLE teachers ADD director varchar(24) DEFAULT NULL COMMENT '团队负责人 ,1=是,2=否'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YBX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ALTER TABLE specialty_files ADD url_file_name varchar(255) DEFAULT NULL COMMENT '文件名称'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ALTER TABLE specialty_files ADD url_file varchar(255) DEFAULT NULL COMMENT '文件路径'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE menu ADD icon varchar(50) DEFAULT NULL COMMENT '图标'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,21 +99,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,9 +445,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -141,10 +707,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -435,19 +1048,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.375" style="1" customWidth="1"/>
@@ -483,7 +1096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.25" customHeight="1">
+    <row r="3" ht="23.25" customHeight="1" spans="1:4">
       <c r="A3" s="2">
         <v>43585</v>
       </c>
@@ -497,7 +1110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1">
+    <row r="4" ht="26.25" customHeight="1" spans="1:4">
       <c r="A4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -506,61 +1119,75 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="3:4">
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="3:4">
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="3:4">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>